--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SP000022419</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blindniet MAGNA-LOK Senkkopf 100°</t>
+          <t>Blindnietmutter grosser Kopf M6/0.70-4.20</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>INOX A2; D=4.8, 3.2-8.4</t>
+          <t>Stahl; verzinkt blau AVK; KVT FASTENING / M6 ALS4-610-4.2 123777</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SP000022427</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blindnietmutter grosser Kopf M8/3.80-7.90</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stahl; verzinkt blau AVK; KVT FASTENING / M8 ALS4-8125-7.9 123780</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SP000022427</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dicht-Blindniet POP IMEX Flachrundkopf D=4.8, 4.8-6.4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aluminium; None Huelse: Aluminium AlMg5, Dorn: Nichtrostender Stahl; KVT FASTENING / AD 68 SS 100426</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SP000022427</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Befestigungssockel M5</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Polyamid 6.6 weiss; PANDUIT TM3S10-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SP000022429</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Winkelprofil GS gepresst 50x50x4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EN AW-6060 T66 EN 755; None Norm: EN 573</t>
         </is>
       </c>
     </row>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,106 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SP000022427</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Blindnietmutter grosser Kopf M6/0.70-4.20</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Stahl; verzinkt blau AVK; KVT FASTENING / M6 ALS4-610-4.2 123777</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SP000022427</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Blindnietmutter grosser Kopf M8/3.80-7.90</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Stahl; verzinkt blau AVK; KVT FASTENING / M8 ALS4-8125-7.9 123780</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SP000022427</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dicht-Blindniet POP IMEX Flachrundkopf D=4.8, 4.8-6.4</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Aluminium; None Huelse: Aluminium AlMg5, Dorn: Nichtrostender Stahl; KVT FASTENING / AD 68 SS 100426</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SP000022427</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Befestigungssockel M5</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Polyamid 6.6 weiss; PANDUIT TM3S10-C</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SP000022429</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Winkelprofil GS gepresst 50x50x4</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EN AW-6060 T66 EN 755; None Norm: EN 573</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
